--- a/0.1.0/StructureDefinition-cdm-claim.xlsx
+++ b/0.1.0/StructureDefinition-cdm-claim.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$175</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5928" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5992" uniqueCount="768">
   <si>
     <t>Path</t>
   </si>
@@ -1362,6 +1362,16 @@
     <t>Claim.diagnosis.extension</t>
   </si>
   <si>
+    <t>majorDiagnosticCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/major-diagnostic-category}
+</t>
+  </si>
+  <si>
+    <t>The body system or disease related groupings of clinical conditions, based on diagnosis codes</t>
+  </si>
+  <si>
     <t>Claim.diagnosis.modifierExtension</t>
   </si>
   <si>
@@ -1478,6 +1488,16 @@
   </si>
   <si>
     <t>Claim.procedure.extension</t>
+  </si>
+  <si>
+    <t>procedureGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/procedure-group}
+</t>
+  </si>
+  <si>
+    <t>Groups assigned to categorize related procedures</t>
   </si>
   <si>
     <t>Claim.procedure.modifierExtension</t>
@@ -2515,7 +2535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL173"/>
+  <dimension ref="A1:AL175"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10592,7 +10612,7 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10614,14 +10634,12 @@
         <v>96</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>42</v>
@@ -10658,16 +10676,14 @@
         <v>42</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB75" s="2"/>
       <c r="AC75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AE75" t="s" s="2">
         <v>142</v>
@@ -10691,48 +10707,46 @@
         <v>42</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B76" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>96</v>
+        <v>433</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>284</v>
+        <v>434</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>42</v>
       </c>
@@ -10780,7 +10794,7 @@
         <v>42</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>286</v>
+        <v>142</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>40</v>
@@ -10789,7 +10803,7 @@
         <v>41</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>102</v>
@@ -10806,42 +10820,42 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>355</v>
+        <v>96</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>434</v>
+        <v>284</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>435</v>
+        <v>285</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>436</v>
+        <v>122</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>437</v>
+        <v>123</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>42</v>
@@ -10890,19 +10904,19 @@
         <v>42</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>433</v>
+        <v>286</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>42</v>
@@ -10911,12 +10925,12 @@
         <v>42</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10939,17 +10953,19 @@
         <v>42</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>42</v>
@@ -10974,13 +10990,13 @@
         <v>42</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>443</v>
+        <v>42</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>444</v>
+        <v>42</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>42</v>
@@ -10998,7 +11014,7 @@
         <v>42</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>50</v>
@@ -11024,7 +11040,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11032,10 +11048,10 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>42</v>
@@ -11047,19 +11063,17 @@
         <v>42</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>154</v>
+        <v>442</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>42</v>
@@ -11087,10 +11101,10 @@
         <v>211</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>42</v>
@@ -11108,13 +11122,13 @@
         <v>42</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>42</v>
@@ -11134,7 +11148,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11145,7 +11159,7 @@
         <v>40</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>42</v>
@@ -11160,14 +11174,16 @@
         <v>154</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="N80" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>42</v>
@@ -11195,10 +11211,10 @@
         <v>211</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>42</v>
@@ -11216,13 +11232,13 @@
         <v>42</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>42</v>
@@ -11242,7 +11258,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11268,16 +11284,14 @@
         <v>154</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>42</v>
@@ -11305,10 +11319,10 @@
         <v>211</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>42</v>
@@ -11326,7 +11340,7 @@
         <v>42</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>40</v>
@@ -11352,7 +11366,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11363,7 +11377,7 @@
         <v>40</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>42</v>
@@ -11375,17 +11389,19 @@
         <v>42</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>275</v>
+        <v>154</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="N82" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>42</v>
@@ -11410,13 +11426,13 @@
         <v>42</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>42</v>
+        <v>466</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>42</v>
+        <v>467</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>42</v>
@@ -11434,13 +11450,13 @@
         <v>42</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>42</v>
@@ -11460,7 +11476,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11471,7 +11487,7 @@
         <v>40</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>42</v>
@@ -11483,16 +11499,18 @@
         <v>42</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>52</v>
+        <v>275</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>134</v>
+        <v>469</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>135</v>
+        <v>470</v>
       </c>
       <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
+      <c r="N83" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>42</v>
       </c>
@@ -11540,19 +11558,19 @@
         <v>42</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>136</v>
+        <v>468</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>42</v>
@@ -11561,23 +11579,23 @@
         <v>42</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>42</v>
@@ -11589,17 +11607,15 @@
         <v>42</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>42</v>
@@ -11648,19 +11664,19 @@
         <v>42</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>42</v>
@@ -11674,11 +11690,11 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11691,26 +11707,22 @@
         <v>42</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J85" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>284</v>
+        <v>97</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>42</v>
       </c>
@@ -11746,19 +11758,17 @@
         <v>42</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB85" s="2"/>
       <c r="AC85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>286</v>
+        <v>142</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -11779,20 +11789,22 @@
         <v>42</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B86" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="C86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>50</v>
@@ -11807,18 +11819,16 @@
         <v>42</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>355</v>
+        <v>475</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M86" s="2"/>
-      <c r="N86" t="s" s="2">
-        <v>475</v>
-      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>42</v>
       </c>
@@ -11866,19 +11876,19 @@
         <v>42</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>472</v>
+        <v>142</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>42</v>
@@ -11887,16 +11897,16 @@
         <v>42</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11909,25 +11919,25 @@
         <v>42</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>477</v>
+        <v>284</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>447</v>
+        <v>285</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>478</v>
+        <v>122</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>449</v>
+        <v>123</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>42</v>
@@ -11952,13 +11962,13 @@
         <v>42</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>479</v>
+        <v>42</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>480</v>
+        <v>42</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>42</v>
@@ -11976,7 +11986,7 @@
         <v>42</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>476</v>
+        <v>286</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>40</v>
@@ -11988,7 +11998,7 @@
         <v>42</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>42</v>
@@ -11997,12 +12007,12 @@
         <v>42</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12010,7 +12020,7 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>50</v>
@@ -12025,17 +12035,17 @@
         <v>42</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>234</v>
+        <v>355</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>42</v>
@@ -12084,10 +12094,10 @@
         <v>42</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>50</v>
@@ -12110,7 +12120,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12118,10 +12128,10 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>42</v>
@@ -12133,17 +12143,19 @@
         <v>42</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>486</v>
+        <v>154</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M89" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="N89" t="s" s="2">
-        <v>489</v>
+        <v>452</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>42</v>
@@ -12171,10 +12183,10 @@
         <v>211</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>42</v>
@@ -12192,13 +12204,13 @@
         <v>42</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>42</v>
@@ -12218,7 +12230,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12229,7 +12241,7 @@
         <v>40</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>42</v>
@@ -12241,17 +12253,17 @@
         <v>42</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>493</v>
+        <v>234</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>42</v>
@@ -12300,13 +12312,13 @@
         <v>42</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>42</v>
@@ -12326,7 +12338,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12337,7 +12349,7 @@
         <v>50</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>42</v>
@@ -12346,22 +12358,20 @@
         <v>42</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>275</v>
+        <v>492</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>42</v>
@@ -12386,13 +12396,13 @@
         <v>42</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>42</v>
+        <v>496</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>42</v>
+        <v>497</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>42</v>
@@ -12410,13 +12420,13 @@
         <v>42</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>50</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>42</v>
@@ -12431,12 +12441,12 @@
         <v>42</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>502</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12447,7 +12457,7 @@
         <v>40</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>42</v>
@@ -12459,16 +12469,18 @@
         <v>42</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>52</v>
+        <v>499</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>134</v>
+        <v>500</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>135</v>
+        <v>501</v>
       </c>
       <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
+      <c r="N92" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>42</v>
       </c>
@@ -12516,19 +12528,19 @@
         <v>42</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>136</v>
+        <v>498</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>42</v>
@@ -12537,20 +12549,20 @@
         <v>42</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>41</v>
@@ -12562,21 +12574,23 @@
         <v>42</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>139</v>
+        <v>504</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>140</v>
+        <v>505</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>42</v>
       </c>
@@ -12624,10 +12638,10 @@
         <v>42</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>142</v>
+        <v>503</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>41</v>
@@ -12636,7 +12650,7 @@
         <v>42</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>42</v>
@@ -12645,48 +12659,44 @@
         <v>42</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>137</v>
+        <v>508</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>42</v>
       </c>
@@ -12734,19 +12744,19 @@
         <v>42</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>286</v>
+        <v>136</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>42</v>
@@ -12755,23 +12765,23 @@
         <v>42</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>64</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>42</v>
@@ -12780,21 +12790,21 @@
         <v>42</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>355</v>
+        <v>96</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>507</v>
+        <v>139</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>42</v>
       </c>
@@ -12842,19 +12852,19 @@
         <v>42</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>506</v>
+        <v>142</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>42</v>
@@ -12863,47 +12873,47 @@
         <v>42</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>42</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>366</v>
+        <v>96</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>511</v>
+        <v>284</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>512</v>
+        <v>285</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>513</v>
+        <v>122</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>514</v>
+        <v>123</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>42</v>
@@ -12952,19 +12962,19 @@
         <v>42</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>510</v>
+        <v>286</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>42</v>
@@ -12973,12 +12983,12 @@
         <v>42</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12986,7 +12996,7 @@
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F97" t="s" s="2">
         <v>50</v>
@@ -12998,22 +13008,20 @@
         <v>42</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>127</v>
+        <v>355</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>42</v>
@@ -13062,10 +13070,10 @@
         <v>42</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>50</v>
@@ -13077,10 +13085,10 @@
         <v>63</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>42</v>
@@ -13088,7 +13096,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13111,17 +13119,19 @@
         <v>51</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>521</v>
+        <v>366</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M98" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="N98" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>42</v>
@@ -13170,7 +13180,7 @@
         <v>42</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>50</v>
@@ -13196,7 +13206,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13219,17 +13229,19 @@
         <v>42</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M99" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="N99" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>42</v>
@@ -13278,7 +13290,7 @@
         <v>42</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>40</v>
@@ -13293,10 +13305,10 @@
         <v>63</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>42</v>
@@ -13304,7 +13316,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13312,10 +13324,10 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>42</v>
@@ -13324,22 +13336,20 @@
         <v>42</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>52</v>
+        <v>527</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>42</v>
@@ -13388,13 +13398,13 @@
         <v>42</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>42</v>
@@ -13414,7 +13424,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13437,19 +13447,17 @@
         <v>42</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>535</v>
+        <v>52</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="M101" s="2"/>
       <c r="N101" t="s" s="2">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>42</v>
@@ -13498,7 +13506,7 @@
         <v>42</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>40</v>
@@ -13524,7 +13532,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13535,7 +13543,7 @@
         <v>40</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>42</v>
@@ -13547,17 +13555,19 @@
         <v>42</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>275</v>
+        <v>52</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M102" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="N102" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>42</v>
@@ -13606,13 +13616,13 @@
         <v>42</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>42</v>
@@ -13632,7 +13642,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13655,16 +13665,20 @@
         <v>42</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>52</v>
+        <v>541</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>134</v>
+        <v>542</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>545</v>
+      </c>
       <c r="O103" t="s" s="2">
         <v>42</v>
       </c>
@@ -13712,7 +13726,7 @@
         <v>42</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>136</v>
+        <v>540</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>40</v>
@@ -13724,7 +13738,7 @@
         <v>42</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>42</v>
@@ -13733,23 +13747,23 @@
         <v>42</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>42</v>
@@ -13761,18 +13775,18 @@
         <v>42</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>139</v>
+        <v>547</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N104" s="2"/>
+        <v>548</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" t="s" s="2">
+        <v>549</v>
+      </c>
       <c r="O104" t="s" s="2">
         <v>42</v>
       </c>
@@ -13820,19 +13834,19 @@
         <v>42</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>142</v>
+        <v>546</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>42</v>
@@ -13841,48 +13855,44 @@
         <v>42</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>42</v>
       </c>
@@ -13930,19 +13940,19 @@
         <v>42</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>286</v>
+        <v>136</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>42</v>
@@ -13951,23 +13961,23 @@
         <v>42</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>64</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>42</v>
@@ -13979,20 +13989,18 @@
         <v>42</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>548</v>
+        <v>96</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>549</v>
+        <v>139</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>550</v>
+        <v>140</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>42</v>
       </c>
@@ -14040,19 +14048,19 @@
         <v>42</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>547</v>
+        <v>142</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>42</v>
@@ -14061,45 +14069,47 @@
         <v>42</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>42</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>554</v>
+        <v>284</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="M107" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="N107" t="s" s="2">
-        <v>556</v>
+        <v>123</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>42</v>
@@ -14124,13 +14134,13 @@
         <v>42</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>557</v>
+        <v>42</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>558</v>
+        <v>42</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>42</v>
@@ -14148,19 +14158,19 @@
         <v>42</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>553</v>
+        <v>286</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>42</v>
@@ -14169,12 +14179,12 @@
         <v>42</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14182,7 +14192,7 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F108" t="s" s="2">
         <v>50</v>
@@ -14197,17 +14207,19 @@
         <v>42</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="M108" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>557</v>
+      </c>
       <c r="N108" t="s" s="2">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>42</v>
@@ -14256,10 +14268,10 @@
         <v>42</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>50</v>
@@ -14282,7 +14294,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14293,7 +14305,7 @@
         <v>40</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>42</v>
@@ -14305,17 +14317,17 @@
         <v>42</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>275</v>
+        <v>154</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>42</v>
@@ -14340,13 +14352,13 @@
         <v>42</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>42</v>
+        <v>563</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>42</v>
+        <v>564</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>42</v>
@@ -14364,13 +14376,13 @@
         <v>42</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>42</v>
@@ -14390,7 +14402,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14413,16 +14425,18 @@
         <v>42</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>134</v>
+        <v>567</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>135</v>
+        <v>568</v>
       </c>
       <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
+      <c r="N110" t="s" s="2">
+        <v>569</v>
+      </c>
       <c r="O110" t="s" s="2">
         <v>42</v>
       </c>
@@ -14470,7 +14484,7 @@
         <v>42</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>136</v>
+        <v>565</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>40</v>
@@ -14482,7 +14496,7 @@
         <v>42</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>42</v>
@@ -14491,12 +14505,12 @@
         <v>42</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14519,16 +14533,18 @@
         <v>42</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>97</v>
+        <v>571</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>98</v>
+        <v>572</v>
       </c>
       <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
+      <c r="N111" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="O111" t="s" s="2">
         <v>42</v>
       </c>
@@ -14564,17 +14580,19 @@
         <v>42</v>
       </c>
       <c r="AA111" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB111" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC111" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD111" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>142</v>
+        <v>570</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>40</v>
@@ -14586,7 +14604,7 @@
         <v>42</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>42</v>
@@ -14600,11 +14618,9 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
         <v>42</v>
       </c>
@@ -14625,13 +14641,13 @@
         <v>42</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>571</v>
+        <v>52</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>572</v>
+        <v>134</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>572</v>
+        <v>135</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -14682,19 +14698,19 @@
         <v>42</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>42</v>
@@ -14703,16 +14719,14 @@
         <v>42</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>64</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
         <v>42</v>
       </c>
@@ -14721,7 +14735,7 @@
         <v>40</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>42</v>
@@ -14733,13 +14747,13 @@
         <v>42</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>574</v>
+        <v>96</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>575</v>
+        <v>97</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>575</v>
+        <v>98</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -14778,16 +14792,14 @@
         <v>42</v>
       </c>
       <c r="AA113" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB113" s="2"/>
       <c r="AC113" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD113" t="s" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AE113" t="s" s="2">
         <v>142</v>
@@ -14799,7 +14811,7 @@
         <v>41</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>102</v>
@@ -14811,48 +14823,46 @@
         <v>42</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="B114" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H114" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>96</v>
+        <v>577</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>284</v>
+        <v>578</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>42</v>
       </c>
@@ -14900,7 +14910,7 @@
         <v>42</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>286</v>
+        <v>142</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>40</v>
@@ -14909,7 +14919,7 @@
         <v>41</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>102</v>
@@ -14926,15 +14936,17 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="B115" s="2"/>
+        <v>575</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>579</v>
+      </c>
       <c r="C115" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F115" t="s" s="2">
         <v>50</v>
@@ -14949,18 +14961,16 @@
         <v>42</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>355</v>
+        <v>580</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M115" s="2"/>
-      <c r="N115" t="s" s="2">
-        <v>580</v>
-      </c>
+      <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
         <v>42</v>
       </c>
@@ -15008,19 +15018,19 @@
         <v>42</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>577</v>
+        <v>142</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>42</v>
@@ -15029,16 +15039,16 @@
         <v>42</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -15051,23 +15061,25 @@
         <v>42</v>
       </c>
       <c r="H116" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>355</v>
+        <v>96</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>582</v>
+        <v>284</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M116" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="N116" t="s" s="2">
-        <v>584</v>
+        <v>123</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>42</v>
@@ -15116,7 +15128,7 @@
         <v>42</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>581</v>
+        <v>286</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>40</v>
@@ -15128,7 +15140,7 @@
         <v>42</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>42</v>
@@ -15137,12 +15149,12 @@
         <v>42</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15150,10 +15162,10 @@
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>42</v>
@@ -15168,14 +15180,14 @@
         <v>355</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>42</v>
@@ -15224,13 +15236,13 @@
         <v>42</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>42</v>
@@ -15250,7 +15262,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15276,14 +15288,14 @@
         <v>355</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>42</v>
@@ -15332,7 +15344,7 @@
         <v>42</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>40</v>
@@ -15358,7 +15370,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15384,14 +15396,14 @@
         <v>355</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>42</v>
@@ -15440,7 +15452,7 @@
         <v>42</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>40</v>
@@ -15466,7 +15478,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15477,7 +15489,7 @@
         <v>40</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>42</v>
@@ -15489,17 +15501,17 @@
         <v>42</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>154</v>
+        <v>355</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>42</v>
@@ -15524,13 +15536,13 @@
         <v>42</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>601</v>
+        <v>42</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>602</v>
+        <v>42</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>42</v>
@@ -15548,13 +15560,13 @@
         <v>42</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>42</v>
@@ -15574,7 +15586,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15585,7 +15597,7 @@
         <v>40</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>42</v>
@@ -15597,19 +15609,17 @@
         <v>42</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>154</v>
+        <v>355</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>606</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>42</v>
@@ -15634,13 +15644,13 @@
         <v>42</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>608</v>
+        <v>42</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>609</v>
+        <v>42</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>42</v>
@@ -15658,13 +15668,13 @@
         <v>42</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>42</v>
@@ -15684,15 +15694,15 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>611</v>
+        <v>42</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F122" t="s" s="2">
         <v>50</v>
@@ -15710,16 +15720,14 @@
         <v>154</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>614</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>42</v>
@@ -15747,10 +15755,10 @@
         <v>211</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>42</v>
@@ -15768,10 +15776,10 @@
         <v>42</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>50</v>
@@ -15794,7 +15802,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15805,7 +15813,7 @@
         <v>40</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>42</v>
@@ -15820,16 +15828,16 @@
         <v>154</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>42</v>
@@ -15857,10 +15865,10 @@
         <v>211</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>42</v>
@@ -15878,13 +15886,13 @@
         <v>42</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>42</v>
@@ -15904,18 +15912,18 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>42</v>
+        <v>617</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>42</v>
@@ -15930,16 +15938,16 @@
         <v>154</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>42</v>
@@ -15967,10 +15975,10 @@
         <v>211</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>42</v>
@@ -15988,13 +15996,13 @@
         <v>42</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>42</v>
@@ -16014,7 +16022,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16025,7 +16033,7 @@
         <v>40</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>42</v>
@@ -16037,17 +16045,19 @@
         <v>42</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>409</v>
+        <v>154</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="M125" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>627</v>
+      </c>
       <c r="N125" t="s" s="2">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>42</v>
@@ -16072,13 +16082,13 @@
         <v>42</v>
       </c>
       <c r="W125" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>42</v>
+        <v>629</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>42</v>
+        <v>630</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>42</v>
@@ -16096,13 +16106,13 @@
         <v>42</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>42</v>
@@ -16114,7 +16124,7 @@
         <v>42</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>42</v>
@@ -16122,7 +16132,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16133,7 +16143,7 @@
         <v>40</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>42</v>
@@ -16145,17 +16155,19 @@
         <v>42</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>637</v>
+        <v>154</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="M126" s="2"/>
+        <v>633</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>634</v>
+      </c>
       <c r="N126" t="s" s="2">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>42</v>
@@ -16183,10 +16195,10 @@
         <v>211</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="Z126" t="s" s="2">
         <v>42</v>
@@ -16204,13 +16216,13 @@
         <v>42</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>42</v>
@@ -16222,7 +16234,7 @@
         <v>42</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>346</v>
+        <v>42</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>42</v>
@@ -16230,7 +16242,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16253,17 +16265,17 @@
         <v>42</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>644</v>
+        <v>409</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" t="s" s="2">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>42</v>
@@ -16312,7 +16324,7 @@
         <v>42</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>40</v>
@@ -16330,7 +16342,7 @@
         <v>42</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>42</v>
+        <v>232</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>42</v>
@@ -16338,7 +16350,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16361,16 +16373,18 @@
         <v>42</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>52</v>
+        <v>643</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>134</v>
+        <v>644</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>135</v>
+        <v>645</v>
       </c>
       <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
+      <c r="N128" t="s" s="2">
+        <v>646</v>
+      </c>
       <c r="O128" t="s" s="2">
         <v>42</v>
       </c>
@@ -16394,13 +16408,13 @@
         <v>42</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>42</v>
+        <v>647</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>42</v>
+        <v>648</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>42</v>
@@ -16418,7 +16432,7 @@
         <v>42</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>136</v>
+        <v>642</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>40</v>
@@ -16430,16 +16444,16 @@
         <v>42</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>42</v>
+        <v>346</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129" hidden="true">
@@ -16448,14 +16462,14 @@
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>42</v>
@@ -16467,18 +16481,18 @@
         <v>42</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>96</v>
+        <v>650</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>139</v>
+        <v>651</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N129" s="2"/>
+        <v>652</v>
+      </c>
+      <c r="M129" s="2"/>
+      <c r="N129" t="s" s="2">
+        <v>653</v>
+      </c>
       <c r="O129" t="s" s="2">
         <v>42</v>
       </c>
@@ -16514,31 +16528,31 @@
         <v>42</v>
       </c>
       <c r="AA129" t="s" s="2">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="AB129" t="s" s="2">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="AC129" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD129" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>142</v>
+        <v>649</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>42</v>
@@ -16547,16 +16561,14 @@
         <v>42</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="B130" t="s" s="2">
-        <v>650</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
         <v>42</v>
       </c>
@@ -16577,13 +16589,13 @@
         <v>42</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>651</v>
+        <v>52</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>652</v>
+        <v>134</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>652</v>
+        <v>135</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -16634,19 +16646,19 @@
         <v>42</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>42</v>
@@ -16655,23 +16667,23 @@
         <v>42</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>64</v>
+        <v>137</v>
       </c>
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>42</v>
@@ -16680,23 +16692,21 @@
         <v>42</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>654</v>
+        <v>96</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>655</v>
+        <v>139</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>656</v>
+        <v>140</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>658</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
         <v>42</v>
       </c>
@@ -16732,31 +16742,31 @@
         <v>42</v>
       </c>
       <c r="AA131" t="s" s="2">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="AB131" t="s" s="2">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="AC131" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD131" t="s" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>659</v>
+        <v>142</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>42</v>
@@ -16765,14 +16775,16 @@
         <v>42</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>660</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="B132" s="2"/>
+        <v>655</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>656</v>
+      </c>
       <c r="C132" t="s" s="2">
         <v>42</v>
       </c>
@@ -16781,36 +16793,32 @@
         <v>40</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H132" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>72</v>
+        <v>657</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="M132" s="2"/>
-      <c r="N132" t="s" s="2">
-        <v>664</v>
-      </c>
+      <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="P132" t="s" s="2">
-        <v>665</v>
-      </c>
+      <c r="P132" s="2"/>
       <c r="Q132" t="s" s="2">
         <v>42</v>
       </c>
@@ -16830,13 +16838,13 @@
         <v>42</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>666</v>
+        <v>42</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>667</v>
+        <v>42</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>42</v>
@@ -16854,19 +16862,19 @@
         <v>42</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>668</v>
+        <v>142</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>42</v>
@@ -16875,12 +16883,12 @@
         <v>42</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>669</v>
+        <v>64</v>
       </c>
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16903,17 +16911,19 @@
         <v>51</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>52</v>
+        <v>660</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="M133" s="2"/>
+        <v>662</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>663</v>
+      </c>
       <c r="N133" t="s" s="2">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>42</v>
@@ -16962,7 +16972,7 @@
         <v>42</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>40</v>
@@ -16983,12 +16993,12 @@
         <v>42</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>675</v>
+        <v>666</v>
       </c>
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -16999,34 +17009,36 @@
         <v>40</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I134" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" t="s" s="2">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="P134" s="2"/>
+      <c r="P134" t="s" s="2">
+        <v>671</v>
+      </c>
       <c r="Q134" t="s" s="2">
         <v>42</v>
       </c>
@@ -17046,13 +17058,13 @@
         <v>42</v>
       </c>
       <c r="W134" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>42</v>
+        <v>672</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>42</v>
+        <v>673</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>42</v>
@@ -17070,7 +17082,7 @@
         <v>42</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>40</v>
@@ -17079,7 +17091,7 @@
         <v>50</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>681</v>
+        <v>42</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>63</v>
@@ -17091,12 +17103,12 @@
         <v>42</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17119,19 +17131,17 @@
         <v>51</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>686</v>
-      </c>
+        <v>678</v>
+      </c>
+      <c r="M135" s="2"/>
       <c r="N135" t="s" s="2">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>42</v>
@@ -17180,7 +17190,7 @@
         <v>42</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>40</v>
@@ -17201,12 +17211,12 @@
         <v>42</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>689</v>
+        <v>681</v>
       </c>
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17226,20 +17236,20 @@
         <v>42</v>
       </c>
       <c r="I136" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>691</v>
+        <v>66</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" t="s" s="2">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>42</v>
@@ -17288,7 +17298,7 @@
         <v>42</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>40</v>
@@ -17297,7 +17307,7 @@
         <v>50</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>42</v>
+        <v>687</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>63</v>
@@ -17309,12 +17319,12 @@
         <v>42</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>42</v>
+        <v>688</v>
       </c>
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17334,22 +17344,22 @@
         <v>42</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>654</v>
+        <v>72</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>42</v>
@@ -17398,7 +17408,7 @@
         <v>42</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>40</v>
@@ -17419,12 +17429,12 @@
         <v>42</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>42</v>
+        <v>695</v>
       </c>
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17447,19 +17457,17 @@
         <v>42</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>703</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="M138" s="2"/>
       <c r="N138" t="s" s="2">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>42</v>
@@ -17508,7 +17516,7 @@
         <v>42</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>40</v>
@@ -17534,7 +17542,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17545,7 +17553,7 @@
         <v>40</v>
       </c>
       <c r="F139" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>42</v>
@@ -17557,17 +17565,19 @@
         <v>42</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>493</v>
+        <v>660</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>494</v>
+        <v>702</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M139" s="2"/>
+        <v>703</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>704</v>
+      </c>
       <c r="N139" t="s" s="2">
-        <v>496</v>
+        <v>705</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>42</v>
@@ -17616,13 +17626,13 @@
         <v>42</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>42</v>
@@ -17665,7 +17675,7 @@
         <v>42</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>154</v>
+        <v>697</v>
       </c>
       <c r="K140" t="s" s="2">
         <v>707</v>
@@ -17702,13 +17712,13 @@
         <v>42</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>711</v>
+        <v>42</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>712</v>
+        <v>42</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>42</v>
@@ -17752,7 +17762,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17775,17 +17785,17 @@
         <v>42</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>154</v>
+        <v>499</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>715</v>
+        <v>501</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>710</v>
+        <v>502</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>42</v>
@@ -17810,13 +17820,13 @@
         <v>42</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>716</v>
+        <v>42</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>717</v>
+        <v>42</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>42</v>
@@ -17834,7 +17844,7 @@
         <v>42</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>40</v>
@@ -17860,7 +17870,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17871,7 +17881,7 @@
         <v>40</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>42</v>
@@ -17883,19 +17893,19 @@
         <v>42</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>719</v>
+        <v>154</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>42</v>
@@ -17920,13 +17930,13 @@
         <v>42</v>
       </c>
       <c r="W142" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>42</v>
+        <v>717</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>42</v>
+        <v>718</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>42</v>
@@ -17944,13 +17954,13 @@
         <v>42</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>42</v>
@@ -17959,7 +17969,7 @@
         <v>63</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>724</v>
+        <v>42</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>42</v>
@@ -17970,7 +17980,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17993,17 +18003,17 @@
         <v>42</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>275</v>
+        <v>154</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>565</v>
+        <v>720</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
-        <v>567</v>
+        <v>716</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>42</v>
@@ -18028,13 +18038,13 @@
         <v>42</v>
       </c>
       <c r="W143" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>42</v>
+        <v>722</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>42</v>
+        <v>723</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>42</v>
@@ -18052,7 +18062,7 @@
         <v>42</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>40</v>
@@ -18078,7 +18088,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18089,7 +18099,7 @@
         <v>40</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>42</v>
@@ -18101,16 +18111,20 @@
         <v>42</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>52</v>
+        <v>725</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>134</v>
+        <v>726</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M144" s="2"/>
-      <c r="N144" s="2"/>
+        <v>727</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>729</v>
+      </c>
       <c r="O144" t="s" s="2">
         <v>42</v>
       </c>
@@ -18158,37 +18172,37 @@
         <v>42</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>136</v>
+        <v>724</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>42</v>
+        <v>730</v>
       </c>
       <c r="AK144" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -18207,18 +18221,18 @@
         <v>42</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>139</v>
+        <v>571</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N145" s="2"/>
+        <v>732</v>
+      </c>
+      <c r="M145" s="2"/>
+      <c r="N145" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="O145" t="s" s="2">
         <v>42</v>
       </c>
@@ -18266,7 +18280,7 @@
         <v>42</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>142</v>
+        <v>731</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>40</v>
@@ -18278,7 +18292,7 @@
         <v>42</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>42</v>
@@ -18287,48 +18301,44 @@
         <v>42</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H146" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I146" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M146" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
         <v>42</v>
       </c>
@@ -18376,19 +18386,19 @@
         <v>42</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>286</v>
+        <v>136</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>42</v>
@@ -18397,23 +18407,23 @@
         <v>42</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>64</v>
+        <v>137</v>
       </c>
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>42</v>
@@ -18425,18 +18435,18 @@
         <v>42</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>355</v>
+        <v>96</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>578</v>
+        <v>139</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M147" s="2"/>
-      <c r="N147" t="s" s="2">
-        <v>580</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
         <v>42</v>
       </c>
@@ -18484,19 +18494,19 @@
         <v>42</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>730</v>
+        <v>142</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>42</v>
@@ -18505,45 +18515,47 @@
         <v>42</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>42</v>
+        <v>137</v>
       </c>
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F148" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H148" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I148" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>598</v>
+        <v>284</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="M148" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M148" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="N148" t="s" s="2">
-        <v>600</v>
+        <v>123</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>42</v>
@@ -18568,13 +18580,13 @@
         <v>42</v>
       </c>
       <c r="W148" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>601</v>
+        <v>42</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>602</v>
+        <v>42</v>
       </c>
       <c r="Z148" t="s" s="2">
         <v>42</v>
@@ -18592,19 +18604,19 @@
         <v>42</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>731</v>
+        <v>286</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>42</v>
@@ -18613,12 +18625,12 @@
         <v>42</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -18626,7 +18638,7 @@
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F149" t="s" s="2">
         <v>50</v>
@@ -18641,19 +18653,17 @@
         <v>42</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>154</v>
+        <v>355</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>606</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="M149" s="2"/>
       <c r="N149" t="s" s="2">
-        <v>607</v>
+        <v>586</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>42</v>
@@ -18678,13 +18688,13 @@
         <v>42</v>
       </c>
       <c r="W149" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X149" t="s" s="2">
-        <v>608</v>
+        <v>42</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>609</v>
+        <v>42</v>
       </c>
       <c r="Z149" t="s" s="2">
         <v>42</v>
@@ -18702,10 +18712,10 @@
         <v>42</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>50</v>
@@ -18728,15 +18738,15 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
-        <v>611</v>
+        <v>42</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F150" t="s" s="2">
         <v>50</v>
@@ -18754,16 +18764,14 @@
         <v>154</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>614</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="M150" s="2"/>
       <c r="N150" t="s" s="2">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>42</v>
@@ -18791,10 +18799,10 @@
         <v>211</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="Z150" t="s" s="2">
         <v>42</v>
@@ -18812,10 +18820,10 @@
         <v>42</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>50</v>
@@ -18838,7 +18846,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -18849,7 +18857,7 @@
         <v>40</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>42</v>
@@ -18864,16 +18872,16 @@
         <v>154</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>735</v>
+        <v>610</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>736</v>
+        <v>612</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>42</v>
@@ -18901,10 +18909,10 @@
         <v>211</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>42</v>
@@ -18922,13 +18930,13 @@
         <v>42</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>42</v>
@@ -18948,18 +18956,18 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>42</v>
+        <v>617</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>42</v>
@@ -18974,16 +18982,16 @@
         <v>154</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>42</v>
@@ -19011,10 +19019,10 @@
         <v>211</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>42</v>
@@ -19032,13 +19040,13 @@
         <v>42</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>42</v>
@@ -19058,7 +19066,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19069,7 +19077,7 @@
         <v>40</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>42</v>
@@ -19081,17 +19089,19 @@
         <v>42</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>644</v>
+        <v>154</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>645</v>
+        <v>741</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="M153" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="M153" t="s" s="2">
+        <v>742</v>
+      </c>
       <c r="N153" t="s" s="2">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>42</v>
@@ -19116,13 +19126,13 @@
         <v>42</v>
       </c>
       <c r="W153" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X153" t="s" s="2">
-        <v>42</v>
+        <v>629</v>
       </c>
       <c r="Y153" t="s" s="2">
-        <v>42</v>
+        <v>630</v>
       </c>
       <c r="Z153" t="s" s="2">
         <v>42</v>
@@ -19140,13 +19150,13 @@
         <v>42</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>42</v>
@@ -19166,7 +19176,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19177,7 +19187,7 @@
         <v>40</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>42</v>
@@ -19189,17 +19199,19 @@
         <v>42</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>691</v>
+        <v>154</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>692</v>
+        <v>632</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="M154" s="2"/>
+        <v>633</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>634</v>
+      </c>
       <c r="N154" t="s" s="2">
-        <v>694</v>
+        <v>635</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>42</v>
@@ -19224,13 +19236,13 @@
         <v>42</v>
       </c>
       <c r="W154" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>42</v>
+        <v>636</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>42</v>
+        <v>637</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>42</v>
@@ -19248,13 +19260,13 @@
         <v>42</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>42</v>
@@ -19274,7 +19286,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19297,19 +19309,17 @@
         <v>42</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>696</v>
+        <v>651</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>698</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="M155" s="2"/>
       <c r="N155" t="s" s="2">
-        <v>699</v>
+        <v>653</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>42</v>
@@ -19358,7 +19368,7 @@
         <v>42</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>40</v>
@@ -19384,7 +19394,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19407,19 +19417,17 @@
         <v>42</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>703</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="M156" s="2"/>
       <c r="N156" t="s" s="2">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>42</v>
@@ -19468,7 +19476,7 @@
         <v>42</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>40</v>
@@ -19494,7 +19502,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19505,7 +19513,7 @@
         <v>40</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>42</v>
@@ -19517,17 +19525,19 @@
         <v>42</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>493</v>
+        <v>660</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>494</v>
+        <v>702</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M157" s="2"/>
+        <v>703</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>704</v>
+      </c>
       <c r="N157" t="s" s="2">
-        <v>496</v>
+        <v>705</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>42</v>
@@ -19576,13 +19586,13 @@
         <v>42</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>42</v>
@@ -19602,7 +19612,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -19613,7 +19623,7 @@
         <v>40</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>42</v>
@@ -19625,17 +19635,19 @@
         <v>42</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>275</v>
+        <v>697</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>565</v>
+        <v>707</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>726</v>
-      </c>
-      <c r="M158" s="2"/>
+        <v>708</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>709</v>
+      </c>
       <c r="N158" t="s" s="2">
-        <v>567</v>
+        <v>710</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>42</v>
@@ -19684,13 +19696,13 @@
         <v>42</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>42</v>
@@ -19710,7 +19722,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19721,7 +19733,7 @@
         <v>40</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>42</v>
@@ -19733,16 +19745,18 @@
         <v>42</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>52</v>
+        <v>499</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>134</v>
+        <v>500</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>135</v>
+        <v>501</v>
       </c>
       <c r="M159" s="2"/>
-      <c r="N159" s="2"/>
+      <c r="N159" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="O159" t="s" s="2">
         <v>42</v>
       </c>
@@ -19790,19 +19804,19 @@
         <v>42</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>136</v>
+        <v>748</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ159" t="s" s="2">
         <v>42</v>
@@ -19811,16 +19825,16 @@
         <v>42</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -19839,18 +19853,18 @@
         <v>42</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>139</v>
+        <v>571</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N160" s="2"/>
+        <v>732</v>
+      </c>
+      <c r="M160" s="2"/>
+      <c r="N160" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="O160" t="s" s="2">
         <v>42</v>
       </c>
@@ -19898,7 +19912,7 @@
         <v>42</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>142</v>
+        <v>749</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>40</v>
@@ -19910,7 +19924,7 @@
         <v>42</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>42</v>
@@ -19919,48 +19933,44 @@
         <v>42</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F161" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G161" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H161" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I161" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M161" s="2"/>
+      <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
         <v>42</v>
       </c>
@@ -20008,19 +20018,19 @@
         <v>42</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>286</v>
+        <v>136</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>42</v>
@@ -20029,23 +20039,23 @@
         <v>42</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>64</v>
+        <v>137</v>
       </c>
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F162" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G162" t="s" s="2">
         <v>42</v>
@@ -20057,18 +20067,18 @@
         <v>42</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>355</v>
+        <v>96</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>578</v>
+        <v>139</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M162" s="2"/>
-      <c r="N162" t="s" s="2">
-        <v>580</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M162" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
         <v>42</v>
       </c>
@@ -20116,19 +20126,19 @@
         <v>42</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>747</v>
+        <v>142</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>42</v>
@@ -20137,45 +20147,47 @@
         <v>42</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>42</v>
+        <v>137</v>
       </c>
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H163" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I163" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>598</v>
+        <v>284</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="M163" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M163" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="N163" t="s" s="2">
-        <v>600</v>
+        <v>123</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>42</v>
@@ -20200,13 +20212,13 @@
         <v>42</v>
       </c>
       <c r="W163" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X163" t="s" s="2">
-        <v>601</v>
+        <v>42</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>602</v>
+        <v>42</v>
       </c>
       <c r="Z163" t="s" s="2">
         <v>42</v>
@@ -20224,19 +20236,19 @@
         <v>42</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>748</v>
+        <v>286</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>42</v>
@@ -20245,12 +20257,12 @@
         <v>42</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20258,7 +20270,7 @@
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F164" t="s" s="2">
         <v>50</v>
@@ -20273,19 +20285,17 @@
         <v>42</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>154</v>
+        <v>355</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="M164" t="s" s="2">
-        <v>606</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
-        <v>607</v>
+        <v>586</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>42</v>
@@ -20310,13 +20320,13 @@
         <v>42</v>
       </c>
       <c r="W164" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>608</v>
+        <v>42</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>609</v>
+        <v>42</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>42</v>
@@ -20334,10 +20344,10 @@
         <v>42</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>50</v>
@@ -20360,7 +20370,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -20368,7 +20378,7 @@
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F165" t="s" s="2">
         <v>50</v>
@@ -20386,16 +20396,14 @@
         <v>154</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="M165" t="s" s="2">
-        <v>614</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="M165" s="2"/>
       <c r="N165" t="s" s="2">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>42</v>
@@ -20423,10 +20431,10 @@
         <v>211</v>
       </c>
       <c r="X165" t="s" s="2">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="Z165" t="s" s="2">
         <v>42</v>
@@ -20444,10 +20452,10 @@
         <v>42</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>50</v>
@@ -20470,7 +20478,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20481,7 +20489,7 @@
         <v>40</v>
       </c>
       <c r="F166" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G166" t="s" s="2">
         <v>42</v>
@@ -20496,16 +20504,16 @@
         <v>154</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>735</v>
+        <v>610</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>736</v>
+        <v>612</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>42</v>
@@ -20533,10 +20541,10 @@
         <v>211</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>42</v>
@@ -20554,13 +20562,13 @@
         <v>42</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>42</v>
@@ -20580,7 +20588,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -20588,10 +20596,10 @@
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F167" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>42</v>
@@ -20606,16 +20614,16 @@
         <v>154</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>42</v>
@@ -20643,10 +20651,10 @@
         <v>211</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>42</v>
@@ -20664,13 +20672,13 @@
         <v>42</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>42</v>
@@ -20690,7 +20698,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -20701,7 +20709,7 @@
         <v>40</v>
       </c>
       <c r="F168" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>42</v>
@@ -20713,17 +20721,19 @@
         <v>42</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>644</v>
+        <v>154</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>645</v>
+        <v>741</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="M168" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>742</v>
+      </c>
       <c r="N168" t="s" s="2">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>42</v>
@@ -20748,13 +20758,13 @@
         <v>42</v>
       </c>
       <c r="W168" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>42</v>
+        <v>629</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>42</v>
+        <v>630</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>42</v>
@@ -20772,13 +20782,13 @@
         <v>42</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>42</v>
@@ -20798,7 +20808,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -20809,7 +20819,7 @@
         <v>40</v>
       </c>
       <c r="F169" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>42</v>
@@ -20821,17 +20831,19 @@
         <v>42</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>691</v>
+        <v>154</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>692</v>
+        <v>632</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="M169" s="2"/>
+        <v>633</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>634</v>
+      </c>
       <c r="N169" t="s" s="2">
-        <v>694</v>
+        <v>635</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>42</v>
@@ -20856,13 +20868,13 @@
         <v>42</v>
       </c>
       <c r="W169" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X169" t="s" s="2">
-        <v>42</v>
+        <v>636</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>42</v>
+        <v>637</v>
       </c>
       <c r="Z169" t="s" s="2">
         <v>42</v>
@@ -20880,13 +20892,13 @@
         <v>42</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>42</v>
@@ -20906,7 +20918,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -20929,19 +20941,17 @@
         <v>42</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>696</v>
+        <v>651</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>698</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>699</v>
+        <v>653</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>42</v>
@@ -20990,7 +21000,7 @@
         <v>42</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>40</v>
@@ -21016,7 +21026,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21039,19 +21049,17 @@
         <v>42</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>703</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>42</v>
@@ -21100,7 +21108,7 @@
         <v>42</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>40</v>
@@ -21126,7 +21134,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21137,7 +21145,7 @@
         <v>40</v>
       </c>
       <c r="F172" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G172" t="s" s="2">
         <v>42</v>
@@ -21149,17 +21157,19 @@
         <v>42</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>493</v>
+        <v>660</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>494</v>
+        <v>702</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M172" s="2"/>
+        <v>703</v>
+      </c>
+      <c r="M172" t="s" s="2">
+        <v>704</v>
+      </c>
       <c r="N172" t="s" s="2">
-        <v>496</v>
+        <v>705</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>42</v>
@@ -21208,13 +21218,13 @@
         <v>42</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>42</v>
@@ -21234,7 +21244,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21257,17 +21267,19 @@
         <v>42</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>759</v>
+        <v>707</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>760</v>
-      </c>
-      <c r="M173" s="2"/>
+        <v>708</v>
+      </c>
+      <c r="M173" t="s" s="2">
+        <v>709</v>
+      </c>
       <c r="N173" t="s" s="2">
-        <v>761</v>
+        <v>710</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>42</v>
@@ -21316,7 +21328,7 @@
         <v>42</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>40</v>
@@ -21340,8 +21352,224 @@
         <v>42</v>
       </c>
     </row>
+    <row r="174" hidden="true">
+      <c r="A174" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="B174" s="2"/>
+      <c r="C174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D174" s="2"/>
+      <c r="E174" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F174" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J174" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="K174" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L174" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M174" s="2"/>
+      <c r="N174" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="O174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P174" s="2"/>
+      <c r="Q174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE174" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="AF174" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG174" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI174" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL174" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="175" hidden="true">
+      <c r="A175" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="B175" s="2"/>
+      <c r="C175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D175" s="2"/>
+      <c r="E175" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F175" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J175" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="K175" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="M175" s="2"/>
+      <c r="N175" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="O175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P175" s="2"/>
+      <c r="Q175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE175" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="AF175" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG175" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI175" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL175" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL173">
+  <autoFilter ref="A1:AL175">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -21351,7 +21579,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI172">
+  <conditionalFormatting sqref="A2:AI174">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
